--- a/bank/pout-2022-11-30.xlsx
+++ b/bank/pout-2022-11-30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weiding/Sites/weidroot/weidroot_2017-01-06/app/github/wdingsoft/whingd/bank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F4CE31-991A-CD4D-9349-7DA767170B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3CCBF7-AF6F-604E-9766-60BE1B519A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="2960" windowWidth="29880" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="2960" windowWidth="29880" windowHeight="12900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expense-Log" sheetId="6" r:id="rId1"/>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="152">
   <si>
     <t>22-06-26</t>
   </si>
@@ -698,6 +698,9 @@
   </si>
   <si>
     <t>iphone-14 (att for jx 470-363-3638)</t>
+  </si>
+  <si>
+    <t>att montly fee</t>
   </si>
 </sst>
 </file>
@@ -1432,8 +1435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED1393D-93E0-6547-BE37-37C21B49335F}">
   <dimension ref="A1:N164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="E129" sqref="E129"/>
+    <sheetView topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2879,7 +2882,7 @@
       <c r="B124" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="C124" s="34">
+      <c r="C124" s="23">
         <v>-100</v>
       </c>
       <c r="E124" s="21" t="s">
@@ -2891,13 +2894,13 @@
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B125" s="21"/>
-      <c r="C125" s="34"/>
+      <c r="C125" s="23"/>
       <c r="E125" s="21"/>
       <c r="F125" s="21"/>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B126" s="21"/>
-      <c r="C126" s="34"/>
+      <c r="C126" s="23"/>
       <c r="E126" s="21"/>
       <c r="F126" s="21"/>
     </row>
@@ -2905,7 +2908,7 @@
       <c r="B127" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C127" s="34">
+      <c r="C127" s="23">
         <v>-260</v>
       </c>
       <c r="E127" s="21" t="s">
@@ -2917,7 +2920,7 @@
       <c r="B128" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C128" s="34">
+      <c r="C128" s="23">
         <v>-800</v>
       </c>
       <c r="E128" s="21" t="s">
@@ -2927,8 +2930,12 @@
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B129" s="21"/>
-      <c r="C129" s="34"/>
-      <c r="E129" s="21"/>
+      <c r="C129" s="23">
+        <v>-60</v>
+      </c>
+      <c r="E129" s="21" t="s">
+        <v>151</v>
+      </c>
       <c r="F129" s="21"/>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.15">
@@ -3151,8 +3158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBE6AC8-509B-A643-BB19-E41D6E7661ED}">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/bank/pout-2022-11-30.xlsx
+++ b/bank/pout-2022-11-30.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weiding/Sites/weidroot/weidroot_2017-01-06/app/github/wdingsoft/whingd/bank/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weiding/Sites/weidroot/weidroot_2017-01-06/app/github/wdingsoft/whjd/bank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3CCBF7-AF6F-604E-9766-60BE1B519A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F87EEBC-6CDC-954E-97BB-A06189E49F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="2960" windowWidth="29880" windowHeight="12900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="2960" windowWidth="29880" windowHeight="15760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expense-Log" sheetId="6" r:id="rId1"/>
@@ -240,12 +240,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{3908617A-992A-584B-8B1D-D31F6B14BFEF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">USD exchangeRate=7.2
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="157">
   <si>
     <t>22-06-26</t>
   </si>
@@ -691,16 +706,31 @@
     <t>22-11-11</t>
   </si>
   <si>
-    <t>visa (receipt)</t>
-  </si>
-  <si>
     <t>22-11-14</t>
   </si>
   <si>
-    <t>iphone-14 (att for jx 470-363-3638)</t>
-  </si>
-  <si>
-    <t>att montly fee</t>
+    <t>22-12-04</t>
+  </si>
+  <si>
+    <t>trip2brisban-beijing.x2.</t>
+  </si>
+  <si>
+    <t>iphone-14 (att for jx 470-363-3638) paidbyJCL 800.</t>
+  </si>
+  <si>
+    <t>WD visa to PRC (receipt)</t>
+  </si>
+  <si>
+    <t>att montly phone fee</t>
+  </si>
+  <si>
+    <t>exchange rate(7.2x50000=360000)</t>
+  </si>
+  <si>
+    <t>22-11-01</t>
+  </si>
+  <si>
+    <t>exhange</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1092,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1216,6 +1246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1433,10 +1464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED1393D-93E0-6547-BE37-37C21B49335F}">
-  <dimension ref="A1:N164"/>
+  <dimension ref="A1:N165"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="E130" sqref="E130"/>
+    <sheetView topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2865,38 +2896,32 @@
       <c r="E122" s="35"/>
       <c r="F122" s="35"/>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B123" s="83" t="s">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B124" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="C123" s="23"/>
-      <c r="D123" s="4">
+      <c r="C124" s="23"/>
+      <c r="D124" s="4">
         <v>-260</v>
       </c>
-      <c r="E123" s="21" t="s">
+      <c r="E124" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F123" s="21"/>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B124" s="30" t="s">
+      <c r="F124" s="21"/>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B125" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="C124" s="23">
+      <c r="C125" s="23">
         <v>-100</v>
       </c>
-      <c r="E124" s="21" t="s">
+      <c r="E125" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="F124" s="47">
+      <c r="F125" s="47">
         <v>-100</v>
       </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B125" s="21"/>
-      <c r="C125" s="23"/>
-      <c r="E125" s="21"/>
-      <c r="F125" s="21"/>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B126" s="21"/>
@@ -2904,35 +2929,38 @@
       <c r="E126" s="21"/>
       <c r="F126" s="21"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B127" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="C127" s="23">
-        <v>-260</v>
-      </c>
-      <c r="E127" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="F127" s="21"/>
+    <row r="127" spans="2:9" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B127" s="86" t="s">
+        <v>155</v>
+      </c>
+      <c r="C127" s="36">
+        <v>-360000</v>
+      </c>
+      <c r="D127" s="45">
+        <v>50000</v>
+      </c>
+      <c r="E127" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="F127" s="35"/>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B128" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C128" s="23">
-        <v>-800</v>
+        <v>147</v>
+      </c>
+      <c r="D128" s="50">
+        <v>-260</v>
       </c>
       <c r="E128" s="21" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F128" s="21"/>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B129" s="21"/>
-      <c r="C129" s="23">
-        <v>-60</v>
-      </c>
+      <c r="B129" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D129" s="50"/>
       <c r="E129" s="21" t="s">
         <v>151</v>
       </c>
@@ -2940,9 +2968,15 @@
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B130" s="21"/>
-      <c r="C130" s="34"/>
-      <c r="E130" s="21"/>
-      <c r="F130" s="21"/>
+      <c r="D130" s="50">
+        <v>-60</v>
+      </c>
+      <c r="E130" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="F130" s="47">
+        <v>-320</v>
+      </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B131" s="21"/>
@@ -2951,10 +2985,19 @@
       <c r="F131" s="21"/>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B132" s="21"/>
-      <c r="C132" s="34"/>
-      <c r="E132" s="21"/>
-      <c r="F132" s="21"/>
+      <c r="B132" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D132" s="50">
+        <v>-5171.6000000000004</v>
+      </c>
+      <c r="E132" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="F132" s="21">
+        <f ca="1">F132</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B133" s="21"/>
@@ -3147,6 +3190,12 @@
       <c r="C164" s="34"/>
       <c r="E164" s="21"/>
       <c r="F164" s="21"/>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B165" s="21"/>
+      <c r="C165" s="34"/>
+      <c r="E165" s="21"/>
+      <c r="F165" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3156,10 +3205,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBE6AC8-509B-A643-BB19-E41D6E7661ED}">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3180,7 +3229,7 @@
     <col min="18" max="18" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="69" t="s">
         <v>85</v>
       </c>
@@ -3234,7 +3283,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="72" t="s">
         <v>116</v>
       </c>
@@ -3258,7 +3307,7 @@
       <c r="O2" s="37"/>
       <c r="P2" s="37"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" s="74" t="s">
         <v>84</v>
       </c>
@@ -3313,7 +3362,7 @@
         <v>2882282.02</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" s="76" t="s">
         <v>98</v>
       </c>
@@ -3370,7 +3419,7 @@
         <v>2898433.49</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" s="76" t="s">
         <v>121</v>
       </c>
@@ -3423,32 +3472,70 @@
         <v>2905665.2800000003</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="40"/>
+      <c r="B6" s="22">
+        <v>-320</v>
+      </c>
+      <c r="C6" s="50">
+        <v>91397</v>
+      </c>
       <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="75"/>
+      <c r="E6" s="22">
+        <v>-360000</v>
+      </c>
+      <c r="F6" s="75">
+        <v>2545665.2799999998</v>
+      </c>
       <c r="G6" s="68"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="H6" s="22">
+        <v>1876535.91</v>
+      </c>
+      <c r="I6" s="22">
+        <v>133646.23000000001</v>
+      </c>
+      <c r="J6" s="22">
+        <v>1478.72</v>
+      </c>
+      <c r="K6" s="22">
+        <v>183.87</v>
+      </c>
+      <c r="L6" s="22">
+        <v>0.37</v>
+      </c>
+      <c r="M6" s="22">
+        <v>615395.01</v>
+      </c>
+      <c r="N6" s="22">
+        <v>59544.5</v>
+      </c>
+      <c r="O6" s="21">
+        <v>0</v>
+      </c>
+      <c r="P6" s="22">
+        <v>1000</v>
+      </c>
+      <c r="R6" s="54">
+        <f>R5-360000</f>
+        <v>2545665.2800000003</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="40"/>
+      <c r="B7" s="22">
+        <v>-5171.6000000000004</v>
+      </c>
+      <c r="C7" s="84">
+        <f>C6+B7</f>
+        <v>86225.4</v>
+      </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
       <c r="F7" s="75"/>
@@ -3463,7 +3550,7 @@
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8" s="76" t="s">
         <v>124</v>
       </c>
@@ -3483,7 +3570,7 @@
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9" s="76" t="s">
         <v>125</v>
       </c>
@@ -3503,7 +3590,7 @@
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" s="76" t="s">
         <v>126</v>
       </c>
@@ -3523,7 +3610,7 @@
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
     </row>
-    <row r="11" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="77" t="s">
         <v>127</v>
       </c>
@@ -3543,25 +3630,25 @@
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="G12" s="62"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="G13" s="62"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="G14" s="62"/>
       <c r="H14" s="54"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="G15" s="62"/>
       <c r="I15" s="1"/>
       <c r="Q15" s="55">
         <v>-16219.33</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="G16" s="62"/>
       <c r="H16" s="54"/>
       <c r="I16" s="54"/>
